--- a/testdata/PolicyCenter.xlsx
+++ b/testdata/PolicyCenter.xlsx
@@ -5,32 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\asrikanth\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\training2\git\AUT_FW_SEL_JAVA_GW_CM_BC_PC_CC\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C212E254-61F5-4567-8B8F-B6744A291571}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECEC498-8BEA-48A8-9A7A-2F1F44BFDDDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="6" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
     <sheet name="Account" sheetId="2" r:id="rId3"/>
-    <sheet name="Policy" sheetId="3" r:id="rId4"/>
-    <sheet name="AcctSummary" sheetId="5" r:id="rId5"/>
-    <sheet name="Invoice" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Policy" sheetId="3" r:id="rId5"/>
+    <sheet name="AcctSummary" sheetId="5" r:id="rId6"/>
+    <sheet name="Invoice" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="288">
   <si>
     <t>TD_UserName</t>
   </si>
@@ -86,9 +96,6 @@
     <t>tallen</t>
   </si>
   <si>
-    <t>User1</t>
-  </si>
-  <si>
     <t>User2</t>
   </si>
   <si>
@@ -819,6 +826,84 @@
   </si>
   <si>
     <t>AUT_TS_118</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Account No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Office Phone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Work Phone</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Fax Phone</t>
+  </si>
+  <si>
+    <t>Primary Phone</t>
+  </si>
+  <si>
+    <t>Primary Email</t>
+  </si>
+  <si>
+    <t>Secondary Email</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>Address 3</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>ZIP Code</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t>TC_2</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6475BEF8-DD19-4698-88B7-D0FED478981E}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,57 +1325,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="H2" s="17">
         <v>44286</v>
@@ -1304,19 +1389,19 @@
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="H3" s="17">
         <v>44286</v>
@@ -1330,19 +1415,19 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="17">
         <v>44286</v>
@@ -1355,22 +1440,22 @@
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="H5" s="17">
         <v>44286</v>
@@ -1384,14 +1469,14 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1402,14 +1487,14 @@
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1420,14 +1505,14 @@
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1438,14 +1523,14 @@
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1456,14 +1541,14 @@
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1474,14 +1559,14 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1492,14 +1577,14 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1510,14 +1595,14 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1528,14 +1613,14 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1546,14 +1631,14 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1564,14 +1649,14 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1582,14 +1667,14 @@
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1599,17 +1684,17 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1620,14 +1705,14 @@
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1638,14 +1723,14 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1655,17 +1740,17 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1676,14 +1761,14 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1694,14 +1779,14 @@
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1711,17 +1796,17 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1732,14 +1817,14 @@
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1750,14 +1835,14 @@
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1767,17 +1852,17 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1788,14 +1873,14 @@
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1806,14 +1891,14 @@
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -1824,14 +1909,14 @@
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1842,14 +1927,14 @@
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -1860,14 +1945,14 @@
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1878,14 +1963,14 @@
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1895,17 +1980,17 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -1915,17 +2000,17 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -1935,17 +2020,17 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -1956,14 +2041,14 @@
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -1974,14 +2059,14 @@
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -1990,20 +2075,20 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2013,17 +2098,17 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="D40" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2034,14 +2119,14 @@
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2052,14 +2137,14 @@
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2070,14 +2155,14 @@
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -2088,14 +2173,14 @@
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2106,14 +2191,14 @@
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -2124,14 +2209,14 @@
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2142,14 +2227,14 @@
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -2160,14 +2245,14 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2178,14 +2263,14 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2196,14 +2281,14 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -2214,14 +2299,14 @@
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -2232,14 +2317,14 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -2249,17 +2334,17 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="D53" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -2270,14 +2355,14 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -2288,14 +2373,14 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -2305,17 +2390,17 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="D56" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -2326,14 +2411,14 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -2344,14 +2429,14 @@
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -2361,17 +2446,17 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="D59" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -2382,14 +2467,14 @@
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -2400,14 +2485,14 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -2417,17 +2502,17 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="D62" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -2438,14 +2523,14 @@
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -2456,14 +2541,14 @@
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -2474,14 +2559,14 @@
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -2492,14 +2577,14 @@
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -2510,14 +2595,14 @@
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -2528,14 +2613,14 @@
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -2545,17 +2630,17 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="D69" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -2565,17 +2650,17 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="D70" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -2585,17 +2670,17 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="D71" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -2606,14 +2691,14 @@
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -2624,14 +2709,14 @@
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -2640,20 +2725,20 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -2664,14 +2749,14 @@
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -2682,14 +2767,14 @@
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -2700,14 +2785,14 @@
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -2716,20 +2801,20 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="D78" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="E78" s="15"/>
       <c r="F78" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -2739,17 +2824,17 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="D79" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -2760,14 +2845,14 @@
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -2778,14 +2863,14 @@
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -2796,14 +2881,14 @@
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
@@ -2814,14 +2899,14 @@
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -2832,14 +2917,14 @@
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
@@ -2850,14 +2935,14 @@
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -2866,20 +2951,20 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -2889,17 +2974,17 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="D87" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -2910,14 +2995,14 @@
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -2928,14 +3013,14 @@
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -2946,14 +3031,14 @@
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -2964,14 +3049,14 @@
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -2982,14 +3067,14 @@
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
@@ -3000,14 +3085,14 @@
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -3018,14 +3103,14 @@
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -3036,14 +3121,14 @@
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E95" s="15"/>
       <c r="F95" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -3054,14 +3139,14 @@
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" s="15"/>
       <c r="F96" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -3072,14 +3157,14 @@
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E97" s="15"/>
       <c r="F97" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -3090,14 +3175,14 @@
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E98" s="15"/>
       <c r="F98" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
@@ -3108,14 +3193,14 @@
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E99" s="15"/>
       <c r="F99" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -3125,17 +3210,17 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="D100" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E100" s="15"/>
       <c r="F100" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -3146,14 +3231,14 @@
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E101" s="15"/>
       <c r="F101" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -3164,14 +3249,14 @@
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E102" s="15"/>
       <c r="F102" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
@@ -3181,17 +3266,17 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="D103" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E103" s="15"/>
       <c r="F103" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
@@ -3202,14 +3287,14 @@
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E104" s="15"/>
       <c r="F104" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
@@ -3220,14 +3305,14 @@
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
@@ -3237,17 +3322,17 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="D106" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E106" s="15"/>
       <c r="F106" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -3258,14 +3343,14 @@
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E107" s="15"/>
       <c r="F107" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -3276,14 +3361,14 @@
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E108" s="15"/>
       <c r="F108" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -3293,17 +3378,17 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="D109" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E109" s="15"/>
       <c r="F109" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -3314,14 +3399,14 @@
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E110" s="15"/>
       <c r="F110" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -3332,14 +3417,14 @@
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E111" s="15"/>
       <c r="F111" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -3350,14 +3435,14 @@
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E112" s="15"/>
       <c r="F112" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -3368,14 +3453,14 @@
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E113" s="15"/>
       <c r="F113" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -3386,14 +3471,14 @@
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E114" s="15"/>
       <c r="F114" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
@@ -3404,14 +3489,14 @@
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E115" s="15"/>
       <c r="F115" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -3421,17 +3506,17 @@
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="D116" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E116" s="15"/>
       <c r="F116" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -3441,17 +3526,17 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="D117" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E117" s="15"/>
       <c r="F117" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -3461,17 +3546,17 @@
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="D118" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E118" s="15"/>
       <c r="F118" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -3482,14 +3567,14 @@
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E119" s="15"/>
       <c r="F119" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
@@ -3504,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3541,7 +3626,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -3552,7 +3637,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -3563,7 +3648,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -3574,7 +3659,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3585,7 +3670,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -3596,7 +3681,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -3607,12 +3692,23 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3627,7 +3723,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,50 +3742,50 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -3700,7 +3796,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -3711,7 +3807,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -3722,7 +3818,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -3738,6 +3834,113 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F7CCEC-FB5D-40A3-A938-416494ABD069}">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R1" t="s">
+        <v>279</v>
+      </c>
+      <c r="S1" t="s">
+        <v>280</v>
+      </c>
+      <c r="T1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B240F2F-8AD3-49E3-9150-9222387F22C2}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3761,36 +3964,36 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="9">
         <v>1000</v>
@@ -3798,7 +4001,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -3808,7 +4011,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -3818,7 +4021,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -3828,7 +4031,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -3842,7 +4045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6705243-A037-4CA9-B29E-68E745D48062}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3865,34 +4068,34 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="13"/>
@@ -3901,7 +4104,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="13"/>
@@ -3910,7 +4113,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="13"/>
@@ -3919,7 +4122,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="13"/>
@@ -3932,7 +4135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729A753F-FC84-49D2-8EB2-5A2921F6B535}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3951,12 +4154,12 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6">
         <v>11</v>
@@ -3964,7 +4167,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6"/>
     </row>
